--- a/Code/Results/Cases/Case_2_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20992148115042</v>
+        <v>12.92888040645593</v>
       </c>
       <c r="C2">
-        <v>14.87751072459775</v>
+        <v>9.070380523056762</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.4384057287782</v>
+        <v>11.43361080149588</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>33.35088751533419</v>
+        <v>28.70288118982866</v>
       </c>
       <c r="H2">
-        <v>10.09206432070197</v>
+        <v>13.68321391459183</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.28007146479326</v>
+        <v>14.64663356233735</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76847726757039</v>
+        <v>12.31466191686637</v>
       </c>
       <c r="C3">
-        <v>13.96321645202874</v>
+        <v>8.596459605942661</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.82719680672731</v>
+        <v>11.3357051710136</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>31.61260127182818</v>
+        <v>28.40597409033242</v>
       </c>
       <c r="H3">
-        <v>9.947506687541271</v>
+        <v>13.72347546076177</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.04944554727897</v>
+        <v>14.35755425966472</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83593985871914</v>
+        <v>11.92375904867162</v>
       </c>
       <c r="C4">
-        <v>13.37421657072226</v>
+        <v>8.290032952169081</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.45010427118835</v>
+        <v>11.27936703737528</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>30.5725107641151</v>
+        <v>28.24018911060421</v>
       </c>
       <c r="H4">
-        <v>9.874426395634082</v>
+        <v>13.75268308668547</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25626845825619</v>
+        <v>14.18108649486832</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44384543131524</v>
+        <v>11.76122278339534</v>
       </c>
       <c r="C5">
-        <v>13.12723318774215</v>
+        <v>8.161344771634434</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.29611378830429</v>
+        <v>11.25737832184468</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>30.15592043581956</v>
+        <v>28.17685322940528</v>
       </c>
       <c r="H5">
-        <v>9.84839784428226</v>
+        <v>13.76570531704673</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.92347623833359</v>
+        <v>14.10953694384014</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37800517541381</v>
+        <v>11.7340452250213</v>
       </c>
       <c r="C6">
-        <v>13.08580132532147</v>
+        <v>8.139747843071419</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.27052891622936</v>
+        <v>11.25378620748242</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>30.08719716258307</v>
+        <v>28.16659315773495</v>
       </c>
       <c r="H6">
-        <v>9.844296717846939</v>
+        <v>13.76793503523901</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.86763541422136</v>
+        <v>14.09768114802013</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.8307010128415</v>
+        <v>11.9215798285023</v>
       </c>
       <c r="C7">
-        <v>13.37091385665292</v>
+        <v>8.288312776528485</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.44802860403167</v>
+        <v>11.27906653962753</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>30.56686252238908</v>
+        <v>28.23931776140495</v>
       </c>
       <c r="H7">
-        <v>9.874060430545965</v>
+        <v>13.75285418608073</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.25181918450676</v>
+        <v>14.1801199467284</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72268063116643</v>
+        <v>12.72007924577467</v>
       </c>
       <c r="C8">
-        <v>14.56797785459093</v>
+        <v>8.910211494271607</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.22810359409656</v>
+        <v>11.39908182115308</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>32.74610033487551</v>
+        <v>28.59712543631014</v>
       </c>
       <c r="H8">
-        <v>10.03885504443504</v>
+        <v>13.69615991251089</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.86347156395399</v>
+        <v>14.54680761348506</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.06290277276739</v>
+        <v>14.1684931557617</v>
       </c>
       <c r="C9">
-        <v>16.69816697795093</v>
+        <v>10.00504629876744</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.73976662506456</v>
+        <v>11.66341149670066</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>37.22201491990662</v>
+        <v>29.42611008283443</v>
       </c>
       <c r="H9">
-        <v>10.49446911483223</v>
+        <v>13.62094219649993</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.73214624581992</v>
+        <v>15.26955401593806</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.30191902896122</v>
+        <v>15.1520426716192</v>
       </c>
       <c r="C10">
-        <v>18.13496692991953</v>
+        <v>10.73116043948559</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.89927554553014</v>
+        <v>11.87382801656629</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>40.63283090520172</v>
+        <v>30.10692747476487</v>
       </c>
       <c r="H10">
-        <v>10.9204478972886</v>
+        <v>13.58806643630854</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.67205324008046</v>
+        <v>15.79697538106704</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.27642692002072</v>
+        <v>15.58055831164713</v>
       </c>
       <c r="C11">
-        <v>18.76208834514116</v>
+        <v>11.04419003124577</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.48626765752238</v>
+        <v>11.97272910688389</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>42.2754413873245</v>
+        <v>30.43077750536516</v>
       </c>
       <c r="H11">
-        <v>11.136216135897</v>
+        <v>13.57806199951176</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.5208047018106</v>
+        <v>16.03497517667888</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.63935922630293</v>
+        <v>15.74001447678479</v>
       </c>
       <c r="C12">
-        <v>18.99589194191343</v>
+        <v>11.16022330005124</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.70649822161303</v>
+        <v>12.01060721764728</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>42.90001329976319</v>
+        <v>30.55531268911785</v>
       </c>
       <c r="H12">
-        <v>11.22126415443663</v>
+        <v>13.57499217871582</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.83760942182339</v>
+        <v>16.12473178644266</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.56146213891281</v>
+        <v>15.70579920070314</v>
       </c>
       <c r="C13">
-        <v>18.9456991346662</v>
+        <v>11.13534508318827</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.65915480701915</v>
+        <v>12.00243102827772</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>42.76538017970475</v>
+        <v>30.52840947622428</v>
       </c>
       <c r="H13">
-        <v>11.20279598441563</v>
+        <v>13.57562125648984</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.76958006628058</v>
+        <v>16.10541890003152</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.30640622086716</v>
+        <v>15.59373373559851</v>
       </c>
       <c r="C14">
-        <v>18.78139627490379</v>
+        <v>11.05378643692784</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.50442581949287</v>
+        <v>11.97583699711597</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>42.32677173022196</v>
+        <v>30.44098578977034</v>
       </c>
       <c r="H14">
-        <v>11.14314506463004</v>
+        <v>13.57779500428979</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.54695903926153</v>
+        <v>16.04236740418987</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.14939120919408</v>
+        <v>15.52472148323848</v>
       </c>
       <c r="C15">
-        <v>18.68028202327025</v>
+        <v>11.00350281173471</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.40939018546314</v>
+        <v>11.95960197877825</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>42.05845597625657</v>
+        <v>30.38767966973788</v>
       </c>
       <c r="H15">
-        <v>11.10704775517106</v>
+        <v>13.57922026617152</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.41000627957703</v>
+        <v>16.00369588673704</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.23736645329209</v>
+        <v>15.12364924704883</v>
       </c>
       <c r="C16">
-        <v>18.09346110467318</v>
+        <v>10.71035369591979</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.86061404770035</v>
+        <v>11.86742598262144</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>40.52581833268642</v>
+        <v>30.08603641341809</v>
       </c>
       <c r="H16">
-        <v>10.90680455653006</v>
+        <v>13.58882045994952</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.61592742244717</v>
+        <v>15.78137481044645</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.66675319529621</v>
+        <v>14.87268931712212</v>
       </c>
       <c r="C17">
-        <v>17.72677042439039</v>
+        <v>10.52607435096142</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.52005026634447</v>
+        <v>11.81167205604667</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>39.62843096348606</v>
+        <v>29.90451714244323</v>
       </c>
       <c r="H17">
-        <v>10.78971903387804</v>
+        <v>13.59598285057557</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.120316870913</v>
+        <v>15.64442771034449</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33439129440632</v>
+        <v>14.72656878988027</v>
       </c>
       <c r="C18">
-        <v>17.51335717650478</v>
+        <v>10.41845571174456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.35540521907072</v>
+        <v>11.77990526567071</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>39.11689594084137</v>
+        <v>29.80145164371953</v>
       </c>
       <c r="H18">
-        <v>10.724433234627</v>
+        <v>13.60056810238132</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.83206395642312</v>
+        <v>15.56548317306933</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.22113787566145</v>
+        <v>14.67679319419776</v>
       </c>
       <c r="C19">
-        <v>17.44066558537936</v>
+        <v>10.38173928072447</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.29972895119259</v>
+        <v>11.7692022725292</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>38.94410219836939</v>
+        <v>29.7667894891748</v>
       </c>
       <c r="H19">
-        <v>10.70267681886248</v>
+        <v>13.60220035008073</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.73391133432822</v>
+        <v>15.53872652440257</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.72792487191038</v>
+        <v>14.89958887647069</v>
       </c>
       <c r="C20">
-        <v>17.76606336617862</v>
+        <v>10.545859643639</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.55645831120316</v>
+        <v>11.81757618589228</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>39.72329727206641</v>
+        <v>29.92370248720716</v>
       </c>
       <c r="H20">
-        <v>10.80196864591206</v>
+        <v>13.59517216045596</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.17340398854114</v>
+        <v>15.65902487780933</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.38148564181116</v>
+        <v>15.62672710804135</v>
       </c>
       <c r="C21">
-        <v>18.82975451489916</v>
+        <v>11.07781027802546</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.54992712786641</v>
+        <v>11.98363698813959</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>42.45552903565666</v>
+        <v>30.46661376388956</v>
       </c>
       <c r="H21">
-        <v>11.1605738312245</v>
+        <v>13.57713696725541</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.61247089212229</v>
+        <v>16.06089786990551</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.42680146866476</v>
+        <v>16.08552244286131</v>
       </c>
       <c r="C22">
-        <v>19.50360549232227</v>
+        <v>11.41086880334843</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.18739692876238</v>
+        <v>12.09463779929804</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>44.2786038794847</v>
+        <v>30.83244836623184</v>
       </c>
       <c r="H22">
-        <v>11.41450962551198</v>
+        <v>13.56954146043679</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.52631810900148</v>
+        <v>16.32135689145433</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.87204796916682</v>
+        <v>15.84218538816967</v>
       </c>
       <c r="C23">
-        <v>19.14585951026816</v>
+        <v>11.23445023715861</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.84816367072245</v>
+        <v>12.03517901666438</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>43.30405700842166</v>
+        <v>30.63623341580077</v>
       </c>
       <c r="H23">
-        <v>11.27712704979834</v>
+        <v>13.57320971993635</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.04092919868629</v>
+        <v>16.18257418656928</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.7002825953828</v>
+        <v>14.88743331052833</v>
       </c>
       <c r="C24">
-        <v>17.74830712893374</v>
+        <v>10.53691992552173</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.54000322140824</v>
+        <v>11.81490603285971</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>39.68040154771752</v>
+        <v>29.91502475726653</v>
       </c>
       <c r="H24">
-        <v>10.7964242922604</v>
+        <v>13.59553721772575</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.14941366158181</v>
+        <v>15.6524261511686</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.19786666445233</v>
+        <v>13.79025907605309</v>
       </c>
       <c r="C25">
-        <v>16.14479663305388</v>
+        <v>9.722480706657988</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.33310380681065</v>
+        <v>11.58894395036153</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>35.99095244151732</v>
+        <v>29.18877964116062</v>
       </c>
       <c r="H25">
-        <v>10.35592673724923</v>
+        <v>13.63739121096783</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.98635917632914</v>
+        <v>15.07425263176856</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.92888040645593</v>
+        <v>21.20992148115036</v>
       </c>
       <c r="C2">
-        <v>9.070380523056762</v>
+        <v>14.87751072459749</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.43361080149588</v>
+        <v>11.43840572877815</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>28.70288118982866</v>
+        <v>33.35088751533439</v>
       </c>
       <c r="H2">
-        <v>13.68321391459183</v>
+        <v>10.09206432070211</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.64663356233735</v>
+        <v>18.28007146479324</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.31466191686637</v>
+        <v>19.76847726757042</v>
       </c>
       <c r="C3">
-        <v>8.596459605942661</v>
+        <v>13.9632164520288</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.3357051710136</v>
+        <v>10.82719680672733</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>28.40597409033242</v>
+        <v>31.61260127182824</v>
       </c>
       <c r="H3">
-        <v>13.72347546076177</v>
+        <v>9.947506687541354</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.35755425966472</v>
+        <v>17.04944554727895</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.92375904867162</v>
+        <v>18.83593985871911</v>
       </c>
       <c r="C4">
-        <v>8.290032952169081</v>
+        <v>13.37421657072217</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.27936703737528</v>
+        <v>10.45010427118833</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>28.24018911060421</v>
+        <v>30.57251076411538</v>
       </c>
       <c r="H4">
-        <v>13.75268308668547</v>
+        <v>9.874426395634126</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.18108649486832</v>
+        <v>16.25626845825616</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.76122278339534</v>
+        <v>18.44384543131521</v>
       </c>
       <c r="C5">
-        <v>8.161344771634434</v>
+        <v>13.12723318774207</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.25737832184468</v>
+        <v>10.29611378830432</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>28.17685322940528</v>
+        <v>30.15592043581961</v>
       </c>
       <c r="H5">
-        <v>13.76570531704673</v>
+        <v>9.848397844282253</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.10953694384014</v>
+        <v>15.92347623833356</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7340452250213</v>
+        <v>18.37800517541386</v>
       </c>
       <c r="C6">
-        <v>8.139747843071419</v>
+        <v>13.08580132532144</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.25378620748242</v>
+        <v>10.27052891622938</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>28.16659315773495</v>
+        <v>30.08719716258308</v>
       </c>
       <c r="H6">
-        <v>13.76793503523901</v>
+        <v>9.844296717846822</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.09768114802013</v>
+        <v>15.86763541422138</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.9215798285023</v>
+        <v>18.83070101284153</v>
       </c>
       <c r="C7">
-        <v>8.288312776528485</v>
+        <v>13.37091385665306</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.27906653962753</v>
+        <v>10.44802860403168</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.23931776140495</v>
+        <v>30.56686252238889</v>
       </c>
       <c r="H7">
-        <v>13.75285418608073</v>
+        <v>9.874060430545779</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.1801199467284</v>
+        <v>16.25181918450679</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.72007924577467</v>
+        <v>20.72268063116642</v>
       </c>
       <c r="C8">
-        <v>8.910211494271607</v>
+        <v>14.56797785459101</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.39908182115308</v>
+        <v>11.22810359409651</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>28.59712543631014</v>
+        <v>32.7461003348754</v>
       </c>
       <c r="H8">
-        <v>13.69615991251089</v>
+        <v>10.03885504443509</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.54680761348506</v>
+        <v>17.86347156395399</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.1684931557617</v>
+        <v>24.06290277276739</v>
       </c>
       <c r="C9">
-        <v>10.00504629876744</v>
+        <v>16.6981669779509</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.66341149670066</v>
+        <v>12.73976662506456</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>29.42611008283443</v>
+        <v>37.2220149199066</v>
       </c>
       <c r="H9">
-        <v>13.62094219649993</v>
+        <v>10.49446911483224</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.26955401593806</v>
+        <v>20.73214624581993</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.1520426716192</v>
+        <v>26.30191902896117</v>
       </c>
       <c r="C10">
-        <v>10.73116043948559</v>
+        <v>18.13496692991954</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.87382801656629</v>
+        <v>13.89927554553015</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>30.10692747476487</v>
+        <v>40.63283090520152</v>
       </c>
       <c r="H10">
-        <v>13.58806643630854</v>
+        <v>10.92044789728857</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.79697538106704</v>
+        <v>22.67205324008044</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.58055831164713</v>
+        <v>27.2764269200208</v>
       </c>
       <c r="C11">
-        <v>11.04419003124577</v>
+        <v>18.76208834514102</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.97272910688389</v>
+        <v>14.48626765752243</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>30.43077750536516</v>
+        <v>42.27544138732482</v>
       </c>
       <c r="H11">
-        <v>13.57806199951176</v>
+        <v>11.13621613589703</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.03497517667888</v>
+        <v>23.52080470181064</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.74001447678479</v>
+        <v>27.63935922630296</v>
       </c>
       <c r="C12">
-        <v>11.16022330005124</v>
+        <v>18.99589194191335</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.01060721764728</v>
+        <v>14.7064982216131</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>30.55531268911785</v>
+        <v>42.90001329976344</v>
       </c>
       <c r="H12">
-        <v>13.57499217871582</v>
+        <v>11.22126415443669</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.12473178644266</v>
+        <v>23.83760942182343</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.70579920070314</v>
+        <v>27.56146213891286</v>
       </c>
       <c r="C13">
-        <v>11.13534508318827</v>
+        <v>18.94569913466631</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.00243102827772</v>
+        <v>14.65915480701909</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>30.52840947622428</v>
+        <v>42.76538017970481</v>
       </c>
       <c r="H13">
-        <v>13.57562125648984</v>
+        <v>11.20279598441558</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.10541890003152</v>
+        <v>23.76958006628058</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.59373373559851</v>
+        <v>27.30640622086716</v>
       </c>
       <c r="C14">
-        <v>11.05378643692784</v>
+        <v>18.78139627490388</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.97583699711597</v>
+        <v>14.50442581949282</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>30.44098578977034</v>
+        <v>42.32677173022186</v>
       </c>
       <c r="H14">
-        <v>13.57779500428979</v>
+        <v>11.14314506463</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.04236740418987</v>
+        <v>23.5469590392615</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52472148323848</v>
+        <v>27.149391209194</v>
       </c>
       <c r="C15">
-        <v>11.00350281173471</v>
+        <v>18.68028202327015</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.95960197877825</v>
+        <v>14.40939018546311</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>30.38767966973788</v>
+        <v>42.05845597625665</v>
       </c>
       <c r="H15">
-        <v>13.57922026617152</v>
+        <v>11.10704775517111</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.00369588673704</v>
+        <v>23.41000627957699</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.12364924704883</v>
+        <v>26.23736645329204</v>
       </c>
       <c r="C16">
-        <v>10.71035369591979</v>
+        <v>18.09346110467319</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.86742598262144</v>
+        <v>13.86061404770033</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>30.08603641341809</v>
+        <v>40.52581833268641</v>
       </c>
       <c r="H16">
-        <v>13.58882045994952</v>
+        <v>10.90680455653009</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.78137481044645</v>
+        <v>22.61592742244714</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.87268931712212</v>
+        <v>25.6667531952962</v>
       </c>
       <c r="C17">
-        <v>10.52607435096142</v>
+        <v>17.72677042439033</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.81167205604667</v>
+        <v>13.5200502663445</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>29.90451714244323</v>
+        <v>39.62843096348612</v>
       </c>
       <c r="H17">
-        <v>13.59598285057557</v>
+        <v>10.78971903387803</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.64442771034449</v>
+        <v>22.120316870913</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.72656878988027</v>
+        <v>25.3343912944062</v>
       </c>
       <c r="C18">
-        <v>10.41845571174456</v>
+        <v>17.51335717650484</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.77990526567071</v>
+        <v>13.3554052190707</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>29.80145164371953</v>
+        <v>39.11689594084133</v>
       </c>
       <c r="H18">
-        <v>13.60056810238132</v>
+        <v>10.72443323462699</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.56548317306933</v>
+        <v>21.8320639564231</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.67679319419776</v>
+        <v>25.22113787566143</v>
       </c>
       <c r="C19">
-        <v>10.38173928072447</v>
+        <v>17.44066558537945</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.7692022725292</v>
+        <v>13.29972895119259</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>29.7667894891748</v>
+        <v>38.94410219836939</v>
       </c>
       <c r="H19">
-        <v>13.60220035008073</v>
+        <v>10.70267681886242</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.53872652440257</v>
+        <v>21.73391133432819</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.89958887647069</v>
+        <v>25.72792487191046</v>
       </c>
       <c r="C20">
-        <v>10.545859643639</v>
+        <v>17.76606336617868</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.81757618589228</v>
+        <v>13.55645831120317</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>29.92370248720716</v>
+        <v>39.72329727206635</v>
       </c>
       <c r="H20">
-        <v>13.59517216045596</v>
+        <v>10.80196864591197</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.65902487780933</v>
+        <v>22.17340398854116</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.62672710804135</v>
+        <v>27.38148564181115</v>
       </c>
       <c r="C21">
-        <v>11.07781027802546</v>
+        <v>18.82975451489925</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.98363698813959</v>
+        <v>14.5499271278664</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>30.46661376388956</v>
+        <v>42.45552903565666</v>
       </c>
       <c r="H21">
-        <v>13.57713696725541</v>
+        <v>11.16057383122451</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.06089786990551</v>
+        <v>23.61247089212226</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.08552244286131</v>
+        <v>28.42680146866472</v>
       </c>
       <c r="C22">
-        <v>11.41086880334843</v>
+        <v>19.50360549232237</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.09463779929804</v>
+        <v>15.18739692876236</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>30.83244836623184</v>
+        <v>44.27860387948452</v>
       </c>
       <c r="H22">
-        <v>13.56954146043679</v>
+        <v>11.41450962551194</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.32135689145433</v>
+        <v>24.52631810900148</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.84218538816967</v>
+        <v>27.87204796916687</v>
       </c>
       <c r="C23">
-        <v>11.23445023715861</v>
+        <v>19.14585951026823</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.03517901666438</v>
+        <v>14.84816367072245</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>30.63623341580077</v>
+        <v>43.30405700842182</v>
       </c>
       <c r="H23">
-        <v>13.57320971993635</v>
+        <v>11.27712704979831</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.18257418656928</v>
+        <v>24.04092919868634</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88743331052833</v>
+        <v>25.70028259538275</v>
       </c>
       <c r="C24">
-        <v>10.53691992552173</v>
+        <v>17.74830712893387</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.81490603285971</v>
+        <v>13.54000322140827</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>29.91502475726653</v>
+        <v>39.68040154771739</v>
       </c>
       <c r="H24">
-        <v>13.59553721772575</v>
+        <v>10.79642429226046</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.6524261511686</v>
+        <v>22.14941366158179</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.79025907605309</v>
+        <v>23.19786666445238</v>
       </c>
       <c r="C25">
-        <v>9.722480706657988</v>
+        <v>16.14479663305394</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.58894395036153</v>
+        <v>12.33310380681066</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>29.18877964116062</v>
+        <v>35.99095244151702</v>
       </c>
       <c r="H25">
-        <v>13.63739121096783</v>
+        <v>10.3559267372491</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.07425263176856</v>
+        <v>19.98635917632915</v>
       </c>
       <c r="N25">
         <v>0</v>
